--- a/Luban/Project/Datas/__tables__.xlsx
+++ b/Luban/Project/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\GF_Survivor\Luban\Project\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016002C4-C1CE-4E47-8295-10CF0747F6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5748BF-38ED-4FA0-8FA4-26B6F0470D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11810" yWindow="1220" windowWidth="11050" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="990" windowWidth="21260" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>Scene@Tables.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbEquipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment@Tables.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +245,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -257,15 +278,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,9 +299,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -798,6 +826,23 @@
         <v>45</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -809,6 +854,7 @@
     <hyperlink ref="E9" r:id="rId6" xr:uid="{394D16F8-7384-4D26-9FD9-5ED6EDA18E71}"/>
     <hyperlink ref="E10" r:id="rId7" xr:uid="{6AD34362-A4EB-4D49-99DA-B401FB69FDAA}"/>
     <hyperlink ref="E11" r:id="rId8" xr:uid="{31B07663-DD38-498E-9442-EC702FEB9DC2}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{97CA5B3B-0CD0-4F0D-9AE8-939344FCDE8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/Project/Datas/__tables__.xlsx
+++ b/Luban/Project/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\GF_Survivor\Luban\Project\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5748BF-38ED-4FA0-8FA4-26B6F0470D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CB2BF3-EE1A-4848-B7BC-AE70C8573900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="990" windowWidth="21260" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1810" windowWidth="18450" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -100,114 +100,119 @@
     <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
   </si>
   <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet@Tables.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbBullet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbHero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero@Tables.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbEntity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbEntityGroup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityGroup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbUIForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbScene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity@Tables.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityGroup@Tables.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect@Tables.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIForm@Tables.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene@Tables.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbEquipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment@Tables.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>Item@Tables.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet@Tables.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TbBullet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TbItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TbHero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero@Tables.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TbEntity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TbEntityGroup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntityGroup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TbEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TbUIForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TbScene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entity@Tables.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EntityGroup@Tables.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect@Tables.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIForm@Tables.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene@Tables.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TbEquipment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equipment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equipment@Tables.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achievement@Tables.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achievement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbAchievement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achievement</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -581,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -678,7 +683,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>23</v>
@@ -692,169 +697,170 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="H12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{DB22FF35-4F64-4562-B475-230CA9FFA3E8}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{32EEAF2C-3E59-4336-824A-F60EADFAF47A}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{597F5C23-521B-4E0C-93A4-36C0912E6A5A}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{81513DD1-DEE3-482C-AB0D-F87AF25BF353}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{181287FA-8A04-42DE-90BC-805EAE665A3D}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{394D16F8-7384-4D26-9FD9-5ED6EDA18E71}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{6AD34362-A4EB-4D49-99DA-B401FB69FDAA}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{31B07663-DD38-498E-9442-EC702FEB9DC2}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{97CA5B3B-0CD0-4F0D-9AE8-939344FCDE8E}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{32EEAF2C-3E59-4336-824A-F60EADFAF47A}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{597F5C23-521B-4E0C-93A4-36C0912E6A5A}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{81513DD1-DEE3-482C-AB0D-F87AF25BF353}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{181287FA-8A04-42DE-90BC-805EAE665A3D}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{394D16F8-7384-4D26-9FD9-5ED6EDA18E71}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{6AD34362-A4EB-4D49-99DA-B401FB69FDAA}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{31B07663-DD38-498E-9442-EC702FEB9DC2}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{97CA5B3B-0CD0-4F0D-9AE8-939344FCDE8E}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{BE6C3FC7-F2FB-4742-BB3B-DE8AE2843EB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
